--- a/biology/Botanique/Gustavia_(genre)/Gustavia_(genre).xlsx
+++ b/biology/Botanique/Gustavia_(genre)/Gustavia_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustavia est un genre de plantes à fleurs de la famille des Lecythidaceae. Il comprend une quarantaine d'espèces originaires de la zone tropicale de l'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon [Qui ?] :
 Gustavia acuminata S.A.Mori, 1979
@@ -533,7 +547,7 @@
 Gustavia sessilis S.A.Mori, 1976
 Gustavia superba Berg, 1854
 Gustavia verticillata Miers, 1874
-Selon Catalogue of Life                                  (22 novembre 2017)[1] :
+Selon Catalogue of Life                                  (22 novembre 2017) :
 Gustavia aethiopica Mahunka, 1982
 Gustavia fusifer (Koch, 1841)
 Gustavia latolamellata Hammer, 1977
